--- a/main/bin/Debug/ArquivosDados/UnimedCadastroProfissional.xlsx
+++ b/main/bin/Debug/ArquivosDados/UnimedCadastroProfissional.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA917148-C22A-47A3-9C15-C75A531AE846}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84D732E1-329F-489B-AD9C-08041E243E78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>Email</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>malFormado</t>
+  </si>
+  <si>
+    <t>SUCESSO</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -590,7 +593,7 @@
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -619,7 +622,7 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -648,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -677,7 +680,7 @@
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -706,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/main/bin/Debug/ArquivosDados/UnimedCadastroProfissional.xlsx
+++ b/main/bin/Debug/ArquivosDados/UnimedCadastroProfissional.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84D732E1-329F-489B-AD9C-08041E243E78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70A29AFF-EF5E-4953-AF89-5A0E65E8B61F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
   <si>
     <t>Email</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Tipo</t>
-  </si>
-  <si>
-    <t>FALHA</t>
   </si>
   <si>
     <t>Estado</t>
@@ -485,13 +482,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -500,27 +497,27 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>2</v>
@@ -529,27 +526,27 @@
         <v>123456</v>
       </c>
       <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>2</v>
@@ -558,27 +555,27 @@
         <v>123456</v>
       </c>
       <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>2</v>
@@ -587,27 +584,27 @@
         <v>123456</v>
       </c>
       <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>2</v>
@@ -616,56 +613,56 @@
         <v>123456</v>
       </c>
       <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1">
         <v>123456</v>
       </c>
       <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>2</v>
@@ -674,42 +671,42 @@
         <v>123456</v>
       </c>
       <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/main/bin/Debug/ArquivosDados/UnimedCadastroProfissional.xlsx
+++ b/main/bin/Debug/ArquivosDados/UnimedCadastroProfissional.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70A29AFF-EF5E-4953-AF89-5A0E65E8B61F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F7EE92C9-BF09-45D8-9530-5A5666B49055}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,6 +34,9 @@
     <t>Tipo</t>
   </si>
   <si>
+    <t>FALHA</t>
+  </si>
+  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>malFormado</t>
-  </si>
-  <si>
-    <t>SUCESSO</t>
   </si>
 </sst>
 </file>
@@ -482,13 +482,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -497,27 +497,27 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>2</v>
@@ -526,27 +526,27 @@
         <v>123456</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>2</v>
@@ -555,27 +555,27 @@
         <v>123456</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>2</v>
@@ -584,27 +584,27 @@
         <v>123456</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>2</v>
@@ -613,56 +613,56 @@
         <v>123456</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1">
         <v>123456</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>2</v>
@@ -671,42 +671,42 @@
         <v>123456</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/main/bin/Debug/ArquivosDados/UnimedCadastroProfissional.xlsx
+++ b/main/bin/Debug/ArquivosDados/UnimedCadastroProfissional.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F7EE92C9-BF09-45D8-9530-5A5666B49055}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5B6B7E2F-A860-4830-9E6C-6236E9743450}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/main/bin/Debug/ArquivosDados/UnimedCadastroProfissional.xlsx
+++ b/main/bin/Debug/ArquivosDados/UnimedCadastroProfissional.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5B6B7E2F-A860-4830-9E6C-6236E9743450}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70A29AFF-EF5E-4953-AF89-5A0E65E8B61F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>FALHA</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>malFormado</t>
+  </si>
+  <si>
+    <t>SUCESSO</t>
   </si>
 </sst>
 </file>
@@ -482,13 +482,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -497,27 +497,27 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>2</v>
@@ -526,27 +526,27 @@
         <v>123456</v>
       </c>
       <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>2</v>
@@ -555,27 +555,27 @@
         <v>123456</v>
       </c>
       <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>2</v>
@@ -584,27 +584,27 @@
         <v>123456</v>
       </c>
       <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>2</v>
@@ -613,56 +613,56 @@
         <v>123456</v>
       </c>
       <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1">
         <v>123456</v>
       </c>
       <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>2</v>
@@ -671,42 +671,42 @@
         <v>123456</v>
       </c>
       <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
